--- a/src/test/resources/testdata/Book3.xlsx
+++ b/src/test/resources/testdata/Book3.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
   <si>
     <t>Insurance Provider Company</t>
   </si>
@@ -562,10 +562,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -573,15 +573,15 @@
         <v>5</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
